--- a/listeArticles.xlsx
+++ b/listeArticles.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qlassalle/Dropbox/Miage/Semestre 2/PHP/Site marchand git/SiteMarchand/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Dropbox\Miage\Semestre 2\PHP\Site marchand git\SiteMarchand\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -199,6 +196,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -470,21 +470,21 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -562,7 +562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -614,7 +614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -666,7 +666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -718,7 +718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -796,7 +796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -822,7 +822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -848,7 +848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
